--- a/SHOP.xlsx
+++ b/SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75E4071-00AD-4FA1-9B91-4019CCE18F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BF90E-A954-4B0A-811F-6E28041FFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{EB4D2DCC-174E-47B7-A437-CE6667273866}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{EB4D2DCC-174E-47B7-A437-CE6667273866}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -233,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,14 +242,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -277,6 +275,20 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,20 +309,21 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -650,46 +663,47 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>117.26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="3">
         <v>1290.5854260000001</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="3">
@@ -697,34 +711,34 @@
         <v>151334.04705276003</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I5" s="3">
         <f>1507+3388</f>
         <v>4895</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="3">
         <v>917</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I7" s="3">
@@ -745,51 +759,52 @@
   <dimension ref="A1:BV253"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J39" sqref="C39:J39"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="3"/>
@@ -869,8 +884,8 @@
       <c r="BU3" s="3"/>
       <c r="BV3" s="3"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="3"/>
@@ -950,7 +965,7 @@
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1024,8 +1039,8 @@
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3"/>
@@ -1105,8 +1120,8 @@
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3"/>
@@ -1186,7 +1201,7 @@
       <c r="BU7" s="3"/>
       <c r="BV7" s="3"/>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1287,8 +1302,8 @@
       <c r="BU8" s="3"/>
       <c r="BV8" s="3"/>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="3"/>
@@ -1368,8 +1383,8 @@
       <c r="BU9" s="3"/>
       <c r="BV9" s="3"/>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="3"/>
@@ -1449,8 +1464,8 @@
       <c r="BU10" s="3"/>
       <c r="BV10" s="3"/>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="3">
@@ -1550,8 +1565,8 @@
       <c r="BU11" s="3"/>
       <c r="BV11" s="3"/>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3"/>
@@ -1631,8 +1646,8 @@
       <c r="BU12" s="3"/>
       <c r="BV12" s="3"/>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3"/>
@@ -1712,8 +1727,8 @@
       <c r="BU13" s="3"/>
       <c r="BV13" s="3"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="3"/>
@@ -1793,8 +1808,8 @@
       <c r="BU14" s="3"/>
       <c r="BV14" s="3"/>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3"/>
@@ -1874,8 +1889,8 @@
       <c r="BU15" s="3"/>
       <c r="BV15" s="3"/>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="3"/>
@@ -1955,8 +1970,8 @@
       <c r="BU16" s="3"/>
       <c r="BV16" s="3"/>
     </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="3">
@@ -2056,8 +2071,8 @@
       <c r="BU17" s="3"/>
       <c r="BV17" s="3"/>
     </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="3"/>
@@ -2137,8 +2152,8 @@
       <c r="BU18" s="3"/>
       <c r="BV18" s="3"/>
     </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="3"/>
@@ -2218,8 +2233,8 @@
       <c r="BU19" s="3"/>
       <c r="BV19" s="3"/>
     </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3"/>
@@ -2299,8 +2314,8 @@
       <c r="BU20" s="3"/>
       <c r="BV20" s="3"/>
     </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="3"/>
@@ -2380,8 +2395,8 @@
       <c r="BU21" s="3"/>
       <c r="BV21" s="3"/>
     </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="3"/>
@@ -2461,8 +2476,8 @@
       <c r="BU22" s="3"/>
       <c r="BV22" s="3"/>
     </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="3">
@@ -2562,8 +2577,8 @@
       <c r="BU23" s="3"/>
       <c r="BV23" s="3"/>
     </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="3"/>
@@ -2643,8 +2658,8 @@
       <c r="BU24" s="3"/>
       <c r="BV24" s="3"/>
     </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="3">
@@ -2744,7 +2759,7 @@
       <c r="BU25" s="3"/>
       <c r="BV25" s="3"/>
     </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2818,39 +2833,39 @@
       <c r="BU26" s="3"/>
       <c r="BV26" s="3"/>
     </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="2" t="e">
+      <c r="C27" s="7" t="e">
         <f t="shared" ref="C27:D27" si="9">+C25/C28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="2" t="e">
+      <c r="D27" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="7">
         <f>+E25/E28</f>
         <v>0.55948231578205332</v>
       </c>
-      <c r="F27" s="2" t="e">
+      <c r="F27" s="7" t="e">
         <f t="shared" ref="F27:J27" si="10">+F25/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="2" t="e">
+      <c r="G27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="2" t="e">
+      <c r="H27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="7">
         <f t="shared" si="10"/>
         <v>0.64156930902766907</v>
       </c>
-      <c r="J27" s="2" t="e">
+      <c r="J27" s="7" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
@@ -2919,8 +2934,8 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="3"/>
@@ -3000,7 +3015,7 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3074,27 +3089,27 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="7" t="e">
+      <c r="G30" s="8" t="e">
         <f t="shared" ref="G30:H31" si="11">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="7" t="e">
+      <c r="H30" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="8">
         <f>+I3/E3-1</f>
         <v>0.24037007383684728</v>
       </c>
-      <c r="J30" s="7" t="e">
+      <c r="J30" s="8" t="e">
         <f>+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -3163,27 +3178,27 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="7" t="e">
+      <c r="G31" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="7" t="e">
+      <c r="H31" s="8" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="8">
         <f t="shared" ref="I31:J31" si="12">+I4/E4-1</f>
         <v>0.27737226277372273</v>
       </c>
-      <c r="J31" s="7" t="e">
+      <c r="J31" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
@@ -3252,27 +3267,27 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="7" t="e">
+      <c r="G32" s="8" t="e">
         <f t="shared" ref="G32:H34" si="13">+G6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="7" t="e">
+      <c r="H32" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="8">
         <f>+I6/E6-1</f>
         <v>0.25514403292181065</v>
       </c>
-      <c r="J32" s="7" t="e">
+      <c r="J32" s="8" t="e">
         <f>+J6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -3341,27 +3356,27 @@
       <c r="BU32" s="3"/>
       <c r="BV32" s="3"/>
     </row>
-    <row r="33" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="7" t="e">
+      <c r="G33" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="7" t="e">
+      <c r="H33" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="8">
         <f t="shared" ref="I33:J34" si="14">+I7/E7-1</f>
         <v>0.26384364820846895</v>
       </c>
-      <c r="J33" s="7" t="e">
+      <c r="J33" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -3430,27 +3445,27 @@
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
     </row>
-    <row r="34" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="7" t="e">
+      <c r="G34" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="7" t="e">
+      <c r="H34" s="8" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="8">
         <f t="shared" si="14"/>
         <v>0.26137689614935833</v>
       </c>
-      <c r="J34" s="7" t="e">
+      <c r="J34" s="8" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
@@ -3519,39 +3534,39 @@
       <c r="BU34" s="3"/>
       <c r="BV34" s="3"/>
     </row>
-    <row r="35" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="7" t="e">
-        <f t="shared" ref="C35:I35" si="15">+(C6-C9)/C6</f>
+      <c r="C35" s="8" t="e">
+        <f t="shared" ref="C35:H35" si="15">+(C6-C9)/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D35" s="7" t="e">
+      <c r="D35" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f t="shared" si="15"/>
         <v>0.81893004115226342</v>
       </c>
-      <c r="F35" s="7" t="e">
+      <c r="F35" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="7" t="e">
+      <c r="G35" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="7" t="e">
+      <c r="H35" s="8" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="8">
         <f>+(I6-I9)/I6</f>
         <v>0.82295081967213113</v>
       </c>
-      <c r="J35" s="7" t="e">
+      <c r="J35" s="8" t="e">
         <f>+(J6-J9)/J6</f>
         <v>#DIV/0!</v>
       </c>
@@ -3620,39 +3635,39 @@
       <c r="BU35" s="3"/>
       <c r="BV35" s="3"/>
     </row>
-    <row r="36" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="7" t="e">
-        <f t="shared" ref="C36:I36" si="16">+(C7-C10)/C7</f>
+      <c r="C36" s="8" t="e">
+        <f t="shared" ref="C36:H36" si="16">+(C7-C10)/C7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="7" t="e">
+      <c r="D36" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <f t="shared" si="16"/>
         <v>0.40960912052117265</v>
       </c>
-      <c r="F36" s="7" t="e">
+      <c r="F36" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="7" t="e">
+      <c r="G36" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="7" t="e">
+      <c r="H36" s="8" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="8">
         <f>+(I7-I10)/I7</f>
         <v>0.39690721649484534</v>
       </c>
-      <c r="J36" s="7" t="e">
+      <c r="J36" s="8" t="e">
         <f>+(J7-J10)/J7</f>
         <v>#DIV/0!</v>
       </c>
@@ -3721,39 +3736,39 @@
       <c r="BU36" s="3"/>
       <c r="BV36" s="3"/>
     </row>
-    <row r="37" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="7" t="e">
-        <f t="shared" ref="C37:J37" si="17">+C11/C8</f>
+      <c r="C37" s="8" t="e">
+        <f t="shared" ref="C37:H37" si="17">+C11/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D37" s="7" t="e">
+      <c r="D37" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f t="shared" si="17"/>
         <v>0.52567094515752621</v>
       </c>
-      <c r="F37" s="7" t="e">
+      <c r="F37" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="7" t="e">
+      <c r="G37" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="7" t="e">
+      <c r="H37" s="8" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="8">
         <f>+I11/I8</f>
         <v>0.51711378353376503</v>
       </c>
-      <c r="J37" s="7" t="e">
+      <c r="J37" s="8" t="e">
         <f t="shared" ref="J37" si="18">+J11/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -3822,39 +3837,39 @@
       <c r="BU37" s="3"/>
       <c r="BV37" s="3"/>
     </row>
-    <row r="38" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:J38" si="19">+C17/C8</f>
+      <c r="C38" s="8" t="e">
+        <f t="shared" ref="C38:H38" si="19">+C17/C8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="7" t="e">
+      <c r="D38" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <f t="shared" si="19"/>
         <v>7.1178529754959155E-2</v>
       </c>
-      <c r="F38" s="7" t="e">
+      <c r="F38" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="7" t="e">
+      <c r="G38" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="7" t="e">
+      <c r="H38" s="8" t="e">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="8">
         <f>+I17/I8</f>
         <v>0.13089731729879742</v>
       </c>
-      <c r="J38" s="7" t="e">
+      <c r="J38" s="8" t="e">
         <f t="shared" ref="J38" si="20">+J17/J8</f>
         <v>#DIV/0!</v>
       </c>
@@ -3923,39 +3938,39 @@
       <c r="BU38" s="3"/>
       <c r="BV38" s="3"/>
     </row>
-    <row r="39" spans="2:74" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="7" t="e">
-        <f t="shared" ref="C39:J39" si="21">+C24/C23</f>
+      <c r="C39" s="8" t="e">
+        <f t="shared" ref="C39:H39" si="21">+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D39" s="7" t="e">
+      <c r="D39" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <f t="shared" si="21"/>
         <v>1.3736263736263736E-2</v>
       </c>
-      <c r="F39" s="7" t="e">
+      <c r="F39" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="7" t="e">
+      <c r="G39" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="7" t="e">
+      <c r="H39" s="8" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="8">
         <f>+I24/I23</f>
         <v>3.7209302325581395E-2</v>
       </c>
-      <c r="J39" s="7" t="e">
+      <c r="J39" s="8" t="e">
         <f t="shared" ref="J39" si="22">+J24/J23</f>
         <v>#DIV/0!</v>
       </c>
@@ -4024,7 +4039,7 @@
       <c r="BU39" s="3"/>
       <c r="BV39" s="3"/>
     </row>
-    <row r="40" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -4098,7 +4113,7 @@
       <c r="BU40" s="3"/>
       <c r="BV40" s="3"/>
     </row>
-    <row r="41" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -4172,7 +4187,7 @@
       <c r="BU41" s="3"/>
       <c r="BV41" s="3"/>
     </row>
-    <row r="42" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4246,7 +4261,7 @@
       <c r="BU42" s="3"/>
       <c r="BV42" s="3"/>
     </row>
-    <row r="43" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -4320,7 +4335,7 @@
       <c r="BU43" s="3"/>
       <c r="BV43" s="3"/>
     </row>
-    <row r="44" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -4394,7 +4409,7 @@
       <c r="BU44" s="3"/>
       <c r="BV44" s="3"/>
     </row>
-    <row r="45" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -4468,7 +4483,7 @@
       <c r="BU45" s="3"/>
       <c r="BV45" s="3"/>
     </row>
-    <row r="46" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -4542,7 +4557,7 @@
       <c r="BU46" s="3"/>
       <c r="BV46" s="3"/>
     </row>
-    <row r="47" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -4616,7 +4631,7 @@
       <c r="BU47" s="3"/>
       <c r="BV47" s="3"/>
     </row>
-    <row r="48" spans="2:74" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:74" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -4690,7 +4705,7 @@
       <c r="BU48" s="3"/>
       <c r="BV48" s="3"/>
     </row>
-    <row r="49" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -4764,7 +4779,7 @@
       <c r="BU49" s="3"/>
       <c r="BV49" s="3"/>
     </row>
-    <row r="50" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -4838,7 +4853,7 @@
       <c r="BU50" s="3"/>
       <c r="BV50" s="3"/>
     </row>
-    <row r="51" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4912,7 +4927,7 @@
       <c r="BU51" s="3"/>
       <c r="BV51" s="3"/>
     </row>
-    <row r="52" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4986,7 +5001,7 @@
       <c r="BU52" s="3"/>
       <c r="BV52" s="3"/>
     </row>
-    <row r="53" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5060,7 +5075,7 @@
       <c r="BU53" s="3"/>
       <c r="BV53" s="3"/>
     </row>
-    <row r="54" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5134,7 +5149,7 @@
       <c r="BU54" s="3"/>
       <c r="BV54" s="3"/>
     </row>
-    <row r="55" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -5208,7 +5223,7 @@
       <c r="BU55" s="3"/>
       <c r="BV55" s="3"/>
     </row>
-    <row r="56" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -5282,7 +5297,7 @@
       <c r="BU56" s="3"/>
       <c r="BV56" s="3"/>
     </row>
-    <row r="57" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5356,7 +5371,7 @@
       <c r="BU57" s="3"/>
       <c r="BV57" s="3"/>
     </row>
-    <row r="58" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5430,7 +5445,7 @@
       <c r="BU58" s="3"/>
       <c r="BV58" s="3"/>
     </row>
-    <row r="59" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5504,7 +5519,7 @@
       <c r="BU59" s="3"/>
       <c r="BV59" s="3"/>
     </row>
-    <row r="60" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5578,7 +5593,7 @@
       <c r="BU60" s="3"/>
       <c r="BV60" s="3"/>
     </row>
-    <row r="61" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -5652,7 +5667,7 @@
       <c r="BU61" s="3"/>
       <c r="BV61" s="3"/>
     </row>
-    <row r="62" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -5726,7 +5741,7 @@
       <c r="BU62" s="3"/>
       <c r="BV62" s="3"/>
     </row>
-    <row r="63" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -5800,7 +5815,7 @@
       <c r="BU63" s="3"/>
       <c r="BV63" s="3"/>
     </row>
-    <row r="64" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -5874,7 +5889,7 @@
       <c r="BU64" s="3"/>
       <c r="BV64" s="3"/>
     </row>
-    <row r="65" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -5948,7 +5963,7 @@
       <c r="BU65" s="3"/>
       <c r="BV65" s="3"/>
     </row>
-    <row r="66" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6022,7 +6037,7 @@
       <c r="BU66" s="3"/>
       <c r="BV66" s="3"/>
     </row>
-    <row r="67" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6096,7 +6111,7 @@
       <c r="BU67" s="3"/>
       <c r="BV67" s="3"/>
     </row>
-    <row r="68" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6170,7 +6185,7 @@
       <c r="BU68" s="3"/>
       <c r="BV68" s="3"/>
     </row>
-    <row r="69" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6244,7 +6259,7 @@
       <c r="BU69" s="3"/>
       <c r="BV69" s="3"/>
     </row>
-    <row r="70" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6318,7 +6333,7 @@
       <c r="BU70" s="3"/>
       <c r="BV70" s="3"/>
     </row>
-    <row r="71" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6392,7 +6407,7 @@
       <c r="BU71" s="3"/>
       <c r="BV71" s="3"/>
     </row>
-    <row r="72" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6466,7 +6481,7 @@
       <c r="BU72" s="3"/>
       <c r="BV72" s="3"/>
     </row>
-    <row r="73" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6540,7 +6555,7 @@
       <c r="BU73" s="3"/>
       <c r="BV73" s="3"/>
     </row>
-    <row r="74" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6614,7 +6629,7 @@
       <c r="BU74" s="3"/>
       <c r="BV74" s="3"/>
     </row>
-    <row r="75" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6688,7 +6703,7 @@
       <c r="BU75" s="3"/>
       <c r="BV75" s="3"/>
     </row>
-    <row r="76" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6762,7 +6777,7 @@
       <c r="BU76" s="3"/>
       <c r="BV76" s="3"/>
     </row>
-    <row r="77" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6836,7 +6851,7 @@
       <c r="BU77" s="3"/>
       <c r="BV77" s="3"/>
     </row>
-    <row r="78" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6910,7 +6925,7 @@
       <c r="BU78" s="3"/>
       <c r="BV78" s="3"/>
     </row>
-    <row r="79" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6984,7 +6999,7 @@
       <c r="BU79" s="3"/>
       <c r="BV79" s="3"/>
     </row>
-    <row r="80" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -7058,7 +7073,7 @@
       <c r="BU80" s="3"/>
       <c r="BV80" s="3"/>
     </row>
-    <row r="81" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -7132,7 +7147,7 @@
       <c r="BU81" s="3"/>
       <c r="BV81" s="3"/>
     </row>
-    <row r="82" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -7206,7 +7221,7 @@
       <c r="BU82" s="3"/>
       <c r="BV82" s="3"/>
     </row>
-    <row r="83" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -7280,7 +7295,7 @@
       <c r="BU83" s="3"/>
       <c r="BV83" s="3"/>
     </row>
-    <row r="84" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -7354,7 +7369,7 @@
       <c r="BU84" s="3"/>
       <c r="BV84" s="3"/>
     </row>
-    <row r="85" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -7428,7 +7443,7 @@
       <c r="BU85" s="3"/>
       <c r="BV85" s="3"/>
     </row>
-    <row r="86" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -7502,7 +7517,7 @@
       <c r="BU86" s="3"/>
       <c r="BV86" s="3"/>
     </row>
-    <row r="87" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -7576,7 +7591,7 @@
       <c r="BU87" s="3"/>
       <c r="BV87" s="3"/>
     </row>
-    <row r="88" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -7650,7 +7665,7 @@
       <c r="BU88" s="3"/>
       <c r="BV88" s="3"/>
     </row>
-    <row r="89" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -7724,7 +7739,7 @@
       <c r="BU89" s="3"/>
       <c r="BV89" s="3"/>
     </row>
-    <row r="90" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -7798,7 +7813,7 @@
       <c r="BU90" s="3"/>
       <c r="BV90" s="3"/>
     </row>
-    <row r="91" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -7872,7 +7887,7 @@
       <c r="BU91" s="3"/>
       <c r="BV91" s="3"/>
     </row>
-    <row r="92" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -7946,7 +7961,7 @@
       <c r="BU92" s="3"/>
       <c r="BV92" s="3"/>
     </row>
-    <row r="93" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -8020,7 +8035,7 @@
       <c r="BU93" s="3"/>
       <c r="BV93" s="3"/>
     </row>
-    <row r="94" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -8094,7 +8109,7 @@
       <c r="BU94" s="3"/>
       <c r="BV94" s="3"/>
     </row>
-    <row r="95" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8168,7 +8183,7 @@
       <c r="BU95" s="3"/>
       <c r="BV95" s="3"/>
     </row>
-    <row r="96" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -8242,7 +8257,7 @@
       <c r="BU96" s="3"/>
       <c r="BV96" s="3"/>
     </row>
-    <row r="97" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8316,7 +8331,7 @@
       <c r="BU97" s="3"/>
       <c r="BV97" s="3"/>
     </row>
-    <row r="98" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -8390,7 +8405,7 @@
       <c r="BU98" s="3"/>
       <c r="BV98" s="3"/>
     </row>
-    <row r="99" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8464,7 +8479,7 @@
       <c r="BU99" s="3"/>
       <c r="BV99" s="3"/>
     </row>
-    <row r="100" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8538,7 +8553,7 @@
       <c r="BU100" s="3"/>
       <c r="BV100" s="3"/>
     </row>
-    <row r="101" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -8612,7 +8627,7 @@
       <c r="BU101" s="3"/>
       <c r="BV101" s="3"/>
     </row>
-    <row r="102" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -8686,7 +8701,7 @@
       <c r="BU102" s="3"/>
       <c r="BV102" s="3"/>
     </row>
-    <row r="103" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -8760,7 +8775,7 @@
       <c r="BU103" s="3"/>
       <c r="BV103" s="3"/>
     </row>
-    <row r="104" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -8834,7 +8849,7 @@
       <c r="BU104" s="3"/>
       <c r="BV104" s="3"/>
     </row>
-    <row r="105" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8908,7 +8923,7 @@
       <c r="BU105" s="3"/>
       <c r="BV105" s="3"/>
     </row>
-    <row r="106" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -8982,7 +8997,7 @@
       <c r="BU106" s="3"/>
       <c r="BV106" s="3"/>
     </row>
-    <row r="107" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -9056,7 +9071,7 @@
       <c r="BU107" s="3"/>
       <c r="BV107" s="3"/>
     </row>
-    <row r="108" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -9130,7 +9145,7 @@
       <c r="BU108" s="3"/>
       <c r="BV108" s="3"/>
     </row>
-    <row r="109" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -9204,7 +9219,7 @@
       <c r="BU109" s="3"/>
       <c r="BV109" s="3"/>
     </row>
-    <row r="110" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -9278,7 +9293,7 @@
       <c r="BU110" s="3"/>
       <c r="BV110" s="3"/>
     </row>
-    <row r="111" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9352,7 +9367,7 @@
       <c r="BU111" s="3"/>
       <c r="BV111" s="3"/>
     </row>
-    <row r="112" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -9426,7 +9441,7 @@
       <c r="BU112" s="3"/>
       <c r="BV112" s="3"/>
     </row>
-    <row r="113" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -9500,7 +9515,7 @@
       <c r="BU113" s="3"/>
       <c r="BV113" s="3"/>
     </row>
-    <row r="114" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -9574,7 +9589,7 @@
       <c r="BU114" s="3"/>
       <c r="BV114" s="3"/>
     </row>
-    <row r="115" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -9648,7 +9663,7 @@
       <c r="BU115" s="3"/>
       <c r="BV115" s="3"/>
     </row>
-    <row r="116" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -9722,7 +9737,7 @@
       <c r="BU116" s="3"/>
       <c r="BV116" s="3"/>
     </row>
-    <row r="117" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -9796,7 +9811,7 @@
       <c r="BU117" s="3"/>
       <c r="BV117" s="3"/>
     </row>
-    <row r="118" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -9870,7 +9885,7 @@
       <c r="BU118" s="3"/>
       <c r="BV118" s="3"/>
     </row>
-    <row r="119" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -9944,7 +9959,7 @@
       <c r="BU119" s="3"/>
       <c r="BV119" s="3"/>
     </row>
-    <row r="120" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -10018,7 +10033,7 @@
       <c r="BU120" s="3"/>
       <c r="BV120" s="3"/>
     </row>
-    <row r="121" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -10092,7 +10107,7 @@
       <c r="BU121" s="3"/>
       <c r="BV121" s="3"/>
     </row>
-    <row r="122" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -10166,7 +10181,7 @@
       <c r="BU122" s="3"/>
       <c r="BV122" s="3"/>
     </row>
-    <row r="123" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -10240,7 +10255,7 @@
       <c r="BU123" s="3"/>
       <c r="BV123" s="3"/>
     </row>
-    <row r="124" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -10314,7 +10329,7 @@
       <c r="BU124" s="3"/>
       <c r="BV124" s="3"/>
     </row>
-    <row r="125" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -10388,7 +10403,7 @@
       <c r="BU125" s="3"/>
       <c r="BV125" s="3"/>
     </row>
-    <row r="126" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -10462,7 +10477,7 @@
       <c r="BU126" s="3"/>
       <c r="BV126" s="3"/>
     </row>
-    <row r="127" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -10536,7 +10551,7 @@
       <c r="BU127" s="3"/>
       <c r="BV127" s="3"/>
     </row>
-    <row r="128" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -10610,7 +10625,7 @@
       <c r="BU128" s="3"/>
       <c r="BV128" s="3"/>
     </row>
-    <row r="129" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -10684,7 +10699,7 @@
       <c r="BU129" s="3"/>
       <c r="BV129" s="3"/>
     </row>
-    <row r="130" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -10758,7 +10773,7 @@
       <c r="BU130" s="3"/>
       <c r="BV130" s="3"/>
     </row>
-    <row r="131" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -10832,7 +10847,7 @@
       <c r="BU131" s="3"/>
       <c r="BV131" s="3"/>
     </row>
-    <row r="132" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -10906,7 +10921,7 @@
       <c r="BU132" s="3"/>
       <c r="BV132" s="3"/>
     </row>
-    <row r="133" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -10980,7 +10995,7 @@
       <c r="BU133" s="3"/>
       <c r="BV133" s="3"/>
     </row>
-    <row r="134" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -11054,7 +11069,7 @@
       <c r="BU134" s="3"/>
       <c r="BV134" s="3"/>
     </row>
-    <row r="135" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -11128,7 +11143,7 @@
       <c r="BU135" s="3"/>
       <c r="BV135" s="3"/>
     </row>
-    <row r="136" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -11202,7 +11217,7 @@
       <c r="BU136" s="3"/>
       <c r="BV136" s="3"/>
     </row>
-    <row r="137" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -11276,7 +11291,7 @@
       <c r="BU137" s="3"/>
       <c r="BV137" s="3"/>
     </row>
-    <row r="138" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -11350,7 +11365,7 @@
       <c r="BU138" s="3"/>
       <c r="BV138" s="3"/>
     </row>
-    <row r="139" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -11424,7 +11439,7 @@
       <c r="BU139" s="3"/>
       <c r="BV139" s="3"/>
     </row>
-    <row r="140" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -11498,7 +11513,7 @@
       <c r="BU140" s="3"/>
       <c r="BV140" s="3"/>
     </row>
-    <row r="141" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -11572,7 +11587,7 @@
       <c r="BU141" s="3"/>
       <c r="BV141" s="3"/>
     </row>
-    <row r="142" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -11646,7 +11661,7 @@
       <c r="BU142" s="3"/>
       <c r="BV142" s="3"/>
     </row>
-    <row r="143" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -11720,7 +11735,7 @@
       <c r="BU143" s="3"/>
       <c r="BV143" s="3"/>
     </row>
-    <row r="144" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -11794,7 +11809,7 @@
       <c r="BU144" s="3"/>
       <c r="BV144" s="3"/>
     </row>
-    <row r="145" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -11868,7 +11883,7 @@
       <c r="BU145" s="3"/>
       <c r="BV145" s="3"/>
     </row>
-    <row r="146" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -11942,7 +11957,7 @@
       <c r="BU146" s="3"/>
       <c r="BV146" s="3"/>
     </row>
-    <row r="147" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -12016,7 +12031,7 @@
       <c r="BU147" s="3"/>
       <c r="BV147" s="3"/>
     </row>
-    <row r="148" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -12090,7 +12105,7 @@
       <c r="BU148" s="3"/>
       <c r="BV148" s="3"/>
     </row>
-    <row r="149" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -12164,7 +12179,7 @@
       <c r="BU149" s="3"/>
       <c r="BV149" s="3"/>
     </row>
-    <row r="150" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -12238,7 +12253,7 @@
       <c r="BU150" s="3"/>
       <c r="BV150" s="3"/>
     </row>
-    <row r="151" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -12312,7 +12327,7 @@
       <c r="BU151" s="3"/>
       <c r="BV151" s="3"/>
     </row>
-    <row r="152" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -12386,7 +12401,7 @@
       <c r="BU152" s="3"/>
       <c r="BV152" s="3"/>
     </row>
-    <row r="153" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -12460,7 +12475,7 @@
       <c r="BU153" s="3"/>
       <c r="BV153" s="3"/>
     </row>
-    <row r="154" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -12534,7 +12549,7 @@
       <c r="BU154" s="3"/>
       <c r="BV154" s="3"/>
     </row>
-    <row r="155" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -12608,7 +12623,7 @@
       <c r="BU155" s="3"/>
       <c r="BV155" s="3"/>
     </row>
-    <row r="156" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -12682,7 +12697,7 @@
       <c r="BU156" s="3"/>
       <c r="BV156" s="3"/>
     </row>
-    <row r="157" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -12756,7 +12771,7 @@
       <c r="BU157" s="3"/>
       <c r="BV157" s="3"/>
     </row>
-    <row r="158" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12830,7 +12845,7 @@
       <c r="BU158" s="3"/>
       <c r="BV158" s="3"/>
     </row>
-    <row r="159" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -12904,7 +12919,7 @@
       <c r="BU159" s="3"/>
       <c r="BV159" s="3"/>
     </row>
-    <row r="160" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -12978,7 +12993,7 @@
       <c r="BU160" s="3"/>
       <c r="BV160" s="3"/>
     </row>
-    <row r="161" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -13052,7 +13067,7 @@
       <c r="BU161" s="3"/>
       <c r="BV161" s="3"/>
     </row>
-    <row r="162" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -13126,7 +13141,7 @@
       <c r="BU162" s="3"/>
       <c r="BV162" s="3"/>
     </row>
-    <row r="163" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -13200,7 +13215,7 @@
       <c r="BU163" s="3"/>
       <c r="BV163" s="3"/>
     </row>
-    <row r="164" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -13274,7 +13289,7 @@
       <c r="BU164" s="3"/>
       <c r="BV164" s="3"/>
     </row>
-    <row r="165" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -13348,7 +13363,7 @@
       <c r="BU165" s="3"/>
       <c r="BV165" s="3"/>
     </row>
-    <row r="166" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -13422,7 +13437,7 @@
       <c r="BU166" s="3"/>
       <c r="BV166" s="3"/>
     </row>
-    <row r="167" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -13496,7 +13511,7 @@
       <c r="BU167" s="3"/>
       <c r="BV167" s="3"/>
     </row>
-    <row r="168" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -13570,7 +13585,7 @@
       <c r="BU168" s="3"/>
       <c r="BV168" s="3"/>
     </row>
-    <row r="169" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -13644,7 +13659,7 @@
       <c r="BU169" s="3"/>
       <c r="BV169" s="3"/>
     </row>
-    <row r="170" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -13718,7 +13733,7 @@
       <c r="BU170" s="3"/>
       <c r="BV170" s="3"/>
     </row>
-    <row r="171" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -13792,7 +13807,7 @@
       <c r="BU171" s="3"/>
       <c r="BV171" s="3"/>
     </row>
-    <row r="172" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -13866,7 +13881,7 @@
       <c r="BU172" s="3"/>
       <c r="BV172" s="3"/>
     </row>
-    <row r="173" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -13940,7 +13955,7 @@
       <c r="BU173" s="3"/>
       <c r="BV173" s="3"/>
     </row>
-    <row r="174" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -14014,7 +14029,7 @@
       <c r="BU174" s="3"/>
       <c r="BV174" s="3"/>
     </row>
-    <row r="175" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -14088,7 +14103,7 @@
       <c r="BU175" s="3"/>
       <c r="BV175" s="3"/>
     </row>
-    <row r="176" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -14162,7 +14177,7 @@
       <c r="BU176" s="3"/>
       <c r="BV176" s="3"/>
     </row>
-    <row r="177" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -14236,7 +14251,7 @@
       <c r="BU177" s="3"/>
       <c r="BV177" s="3"/>
     </row>
-    <row r="178" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -14310,7 +14325,7 @@
       <c r="BU178" s="3"/>
       <c r="BV178" s="3"/>
     </row>
-    <row r="179" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -14384,7 +14399,7 @@
       <c r="BU179" s="3"/>
       <c r="BV179" s="3"/>
     </row>
-    <row r="180" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -14458,7 +14473,7 @@
       <c r="BU180" s="3"/>
       <c r="BV180" s="3"/>
     </row>
-    <row r="181" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -14532,7 +14547,7 @@
       <c r="BU181" s="3"/>
       <c r="BV181" s="3"/>
     </row>
-    <row r="182" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -14606,7 +14621,7 @@
       <c r="BU182" s="3"/>
       <c r="BV182" s="3"/>
     </row>
-    <row r="183" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -14680,7 +14695,7 @@
       <c r="BU183" s="3"/>
       <c r="BV183" s="3"/>
     </row>
-    <row r="184" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -14754,7 +14769,7 @@
       <c r="BU184" s="3"/>
       <c r="BV184" s="3"/>
     </row>
-    <row r="185" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -14828,7 +14843,7 @@
       <c r="BU185" s="3"/>
       <c r="BV185" s="3"/>
     </row>
-    <row r="186" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -14902,7 +14917,7 @@
       <c r="BU186" s="3"/>
       <c r="BV186" s="3"/>
     </row>
-    <row r="187" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -14976,7 +14991,7 @@
       <c r="BU187" s="3"/>
       <c r="BV187" s="3"/>
     </row>
-    <row r="188" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -15050,7 +15065,7 @@
       <c r="BU188" s="3"/>
       <c r="BV188" s="3"/>
     </row>
-    <row r="189" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -15124,7 +15139,7 @@
       <c r="BU189" s="3"/>
       <c r="BV189" s="3"/>
     </row>
-    <row r="190" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -15198,7 +15213,7 @@
       <c r="BU190" s="3"/>
       <c r="BV190" s="3"/>
     </row>
-    <row r="191" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -15272,7 +15287,7 @@
       <c r="BU191" s="3"/>
       <c r="BV191" s="3"/>
     </row>
-    <row r="192" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -15346,7 +15361,7 @@
       <c r="BU192" s="3"/>
       <c r="BV192" s="3"/>
     </row>
-    <row r="193" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -15420,7 +15435,7 @@
       <c r="BU193" s="3"/>
       <c r="BV193" s="3"/>
     </row>
-    <row r="194" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -15494,7 +15509,7 @@
       <c r="BU194" s="3"/>
       <c r="BV194" s="3"/>
     </row>
-    <row r="195" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -15568,7 +15583,7 @@
       <c r="BU195" s="3"/>
       <c r="BV195" s="3"/>
     </row>
-    <row r="196" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -15642,7 +15657,7 @@
       <c r="BU196" s="3"/>
       <c r="BV196" s="3"/>
     </row>
-    <row r="197" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -15716,7 +15731,7 @@
       <c r="BU197" s="3"/>
       <c r="BV197" s="3"/>
     </row>
-    <row r="198" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -15790,7 +15805,7 @@
       <c r="BU198" s="3"/>
       <c r="BV198" s="3"/>
     </row>
-    <row r="199" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -15864,7 +15879,7 @@
       <c r="BU199" s="3"/>
       <c r="BV199" s="3"/>
     </row>
-    <row r="200" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -15938,7 +15953,7 @@
       <c r="BU200" s="3"/>
       <c r="BV200" s="3"/>
     </row>
-    <row r="201" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -16012,7 +16027,7 @@
       <c r="BU201" s="3"/>
       <c r="BV201" s="3"/>
     </row>
-    <row r="202" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -16086,7 +16101,7 @@
       <c r="BU202" s="3"/>
       <c r="BV202" s="3"/>
     </row>
-    <row r="203" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -16160,7 +16175,7 @@
       <c r="BU203" s="3"/>
       <c r="BV203" s="3"/>
     </row>
-    <row r="204" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -16234,7 +16249,7 @@
       <c r="BU204" s="3"/>
       <c r="BV204" s="3"/>
     </row>
-    <row r="205" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -16308,7 +16323,7 @@
       <c r="BU205" s="3"/>
       <c r="BV205" s="3"/>
     </row>
-    <row r="206" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -16382,7 +16397,7 @@
       <c r="BU206" s="3"/>
       <c r="BV206" s="3"/>
     </row>
-    <row r="207" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -16456,7 +16471,7 @@
       <c r="BU207" s="3"/>
       <c r="BV207" s="3"/>
     </row>
-    <row r="208" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -16530,7 +16545,7 @@
       <c r="BU208" s="3"/>
       <c r="BV208" s="3"/>
     </row>
-    <row r="209" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -16604,7 +16619,7 @@
       <c r="BU209" s="3"/>
       <c r="BV209" s="3"/>
     </row>
-    <row r="210" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -16678,7 +16693,7 @@
       <c r="BU210" s="3"/>
       <c r="BV210" s="3"/>
     </row>
-    <row r="211" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -16752,7 +16767,7 @@
       <c r="BU211" s="3"/>
       <c r="BV211" s="3"/>
     </row>
-    <row r="212" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -16826,7 +16841,7 @@
       <c r="BU212" s="3"/>
       <c r="BV212" s="3"/>
     </row>
-    <row r="213" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -16900,7 +16915,7 @@
       <c r="BU213" s="3"/>
       <c r="BV213" s="3"/>
     </row>
-    <row r="214" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -16974,7 +16989,7 @@
       <c r="BU214" s="3"/>
       <c r="BV214" s="3"/>
     </row>
-    <row r="215" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -17048,7 +17063,7 @@
       <c r="BU215" s="3"/>
       <c r="BV215" s="3"/>
     </row>
-    <row r="216" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -17122,7 +17137,7 @@
       <c r="BU216" s="3"/>
       <c r="BV216" s="3"/>
     </row>
-    <row r="217" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -17196,7 +17211,7 @@
       <c r="BU217" s="3"/>
       <c r="BV217" s="3"/>
     </row>
-    <row r="218" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -17270,7 +17285,7 @@
       <c r="BU218" s="3"/>
       <c r="BV218" s="3"/>
     </row>
-    <row r="219" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -17344,7 +17359,7 @@
       <c r="BU219" s="3"/>
       <c r="BV219" s="3"/>
     </row>
-    <row r="220" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -17418,7 +17433,7 @@
       <c r="BU220" s="3"/>
       <c r="BV220" s="3"/>
     </row>
-    <row r="221" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -17492,7 +17507,7 @@
       <c r="BU221" s="3"/>
       <c r="BV221" s="3"/>
     </row>
-    <row r="222" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -17566,7 +17581,7 @@
       <c r="BU222" s="3"/>
       <c r="BV222" s="3"/>
     </row>
-    <row r="223" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -17640,7 +17655,7 @@
       <c r="BU223" s="3"/>
       <c r="BV223" s="3"/>
     </row>
-    <row r="224" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -17714,7 +17729,7 @@
       <c r="BU224" s="3"/>
       <c r="BV224" s="3"/>
     </row>
-    <row r="225" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -17788,7 +17803,7 @@
       <c r="BU225" s="3"/>
       <c r="BV225" s="3"/>
     </row>
-    <row r="226" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -17862,7 +17877,7 @@
       <c r="BU226" s="3"/>
       <c r="BV226" s="3"/>
     </row>
-    <row r="227" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -17936,7 +17951,7 @@
       <c r="BU227" s="3"/>
       <c r="BV227" s="3"/>
     </row>
-    <row r="228" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -18010,7 +18025,7 @@
       <c r="BU228" s="3"/>
       <c r="BV228" s="3"/>
     </row>
-    <row r="229" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -18084,7 +18099,7 @@
       <c r="BU229" s="3"/>
       <c r="BV229" s="3"/>
     </row>
-    <row r="230" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -18158,7 +18173,7 @@
       <c r="BU230" s="3"/>
       <c r="BV230" s="3"/>
     </row>
-    <row r="231" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -18232,7 +18247,7 @@
       <c r="BU231" s="3"/>
       <c r="BV231" s="3"/>
     </row>
-    <row r="232" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -18306,7 +18321,7 @@
       <c r="BU232" s="3"/>
       <c r="BV232" s="3"/>
     </row>
-    <row r="233" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -18380,7 +18395,7 @@
       <c r="BU233" s="3"/>
       <c r="BV233" s="3"/>
     </row>
-    <row r="234" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -18454,7 +18469,7 @@
       <c r="BU234" s="3"/>
       <c r="BV234" s="3"/>
     </row>
-    <row r="235" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -18528,7 +18543,7 @@
       <c r="BU235" s="3"/>
       <c r="BV235" s="3"/>
     </row>
-    <row r="236" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -18602,7 +18617,7 @@
       <c r="BU236" s="3"/>
       <c r="BV236" s="3"/>
     </row>
-    <row r="237" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -18676,7 +18691,7 @@
       <c r="BU237" s="3"/>
       <c r="BV237" s="3"/>
     </row>
-    <row r="238" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -18750,7 +18765,7 @@
       <c r="BU238" s="3"/>
       <c r="BV238" s="3"/>
     </row>
-    <row r="239" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -18824,7 +18839,7 @@
       <c r="BU239" s="3"/>
       <c r="BV239" s="3"/>
     </row>
-    <row r="240" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -18898,7 +18913,7 @@
       <c r="BU240" s="3"/>
       <c r="BV240" s="3"/>
     </row>
-    <row r="241" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -18972,7 +18987,7 @@
       <c r="BU241" s="3"/>
       <c r="BV241" s="3"/>
     </row>
-    <row r="242" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -19046,7 +19061,7 @@
       <c r="BU242" s="3"/>
       <c r="BV242" s="3"/>
     </row>
-    <row r="243" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -19120,7 +19135,7 @@
       <c r="BU243" s="3"/>
       <c r="BV243" s="3"/>
     </row>
-    <row r="244" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -19194,7 +19209,7 @@
       <c r="BU244" s="3"/>
       <c r="BV244" s="3"/>
     </row>
-    <row r="245" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -19268,7 +19283,7 @@
       <c r="BU245" s="3"/>
       <c r="BV245" s="3"/>
     </row>
-    <row r="246" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -19342,7 +19357,7 @@
       <c r="BU246" s="3"/>
       <c r="BV246" s="3"/>
     </row>
-    <row r="247" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -19416,7 +19431,7 @@
       <c r="BU247" s="3"/>
       <c r="BV247" s="3"/>
     </row>
-    <row r="248" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -19490,7 +19505,7 @@
       <c r="BU248" s="3"/>
       <c r="BV248" s="3"/>
     </row>
-    <row r="249" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -19564,7 +19579,7 @@
       <c r="BU249" s="3"/>
       <c r="BV249" s="3"/>
     </row>
-    <row r="250" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -19638,7 +19653,7 @@
       <c r="BU250" s="3"/>
       <c r="BV250" s="3"/>
     </row>
-    <row r="251" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -19712,7 +19727,7 @@
       <c r="BU251" s="3"/>
       <c r="BV251" s="3"/>
     </row>
-    <row r="252" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -19786,7 +19801,7 @@
       <c r="BU252" s="3"/>
       <c r="BV252" s="3"/>
     </row>
-    <row r="253" spans="3:74" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:74" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>

--- a/SHOP.xlsx
+++ b/SHOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BF90E-A954-4B0A-811F-6E28041FFA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE9C9CF-640B-4423-BFF9-8569FCD31B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{EB4D2DCC-174E-47B7-A437-CE6667273866}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{EB4D2DCC-174E-47B7-A437-CE6667273866}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Shopify</t>
   </si>
@@ -228,18 +228,39 @@
   <si>
     <t>Gross Margin</t>
   </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -309,21 +330,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -663,7 +690,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -685,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="I2" s="2">
-        <v>117.26</v>
+        <v>150.69</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -693,10 +720,11 @@
         <v>3</v>
       </c>
       <c r="I3" s="3">
-        <v>1290.5854260000001</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
+        <f>1220.418767+79.241982</f>
+        <v>1299.6607489999999</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -708,7 +736,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>151334.04705276003</v>
+        <v>195845.87826680997</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -719,11 +747,11 @@
         <v>5</v>
       </c>
       <c r="I5" s="3">
-        <f>1507+3388</f>
-        <v>4895</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
+        <f>1542+4278</f>
+        <v>5820</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -731,10 +759,10 @@
         <v>6</v>
       </c>
       <c r="I6" s="3">
-        <v>917</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>10</v>
+        <v>919</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -743,7 +771,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>147356.04705276003</v>
+        <v>190944.87826680997</v>
       </c>
     </row>
   </sheetData>
@@ -759,10 +787,10 @@
   <dimension ref="A1:BV253"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,12 +800,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
@@ -802,2047 +830,703 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <v>56205</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
+      <c r="H3" s="10">
+        <v>67245</v>
+      </c>
+      <c r="I3" s="10">
         <v>69715</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-    </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="L3" s="10">
+        <v>87837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>137</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="H4" s="10">
+        <v>169</v>
+      </c>
+      <c r="I4" s="10">
         <v>175</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3"/>
-      <c r="BB4" s="3"/>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BE4" s="3"/>
-      <c r="BF4" s="3"/>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="3"/>
-      <c r="BP4" s="3"/>
-      <c r="BQ4" s="3"/>
-      <c r="BR4" s="3"/>
-      <c r="BS4" s="3"/>
-      <c r="BT4" s="3"/>
-      <c r="BU4" s="3"/>
-      <c r="BV4" s="3"/>
-    </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.2">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-    </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="L4" s="10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>486</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="G6" s="10">
+        <v>511</v>
+      </c>
+      <c r="H6" s="10">
+        <v>563</v>
+      </c>
+      <c r="I6" s="10">
         <v>610</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="3"/>
-      <c r="BK6" s="3"/>
-      <c r="BL6" s="3"/>
-      <c r="BM6" s="3"/>
-      <c r="BN6" s="3"/>
-      <c r="BO6" s="3"/>
-      <c r="BP6" s="3"/>
-      <c r="BQ6" s="3"/>
-      <c r="BR6" s="3"/>
-      <c r="BS6" s="3"/>
-      <c r="BT6" s="3"/>
-      <c r="BU6" s="3"/>
-      <c r="BV6" s="3"/>
-    </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K6" s="10">
+        <v>620</v>
+      </c>
+      <c r="L6" s="10">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>1228</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="G7" s="10">
+        <v>1350</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1482</v>
+      </c>
+      <c r="I7" s="10">
         <v>1552</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
-      <c r="BL7" s="3"/>
-      <c r="BM7" s="3"/>
-      <c r="BN7" s="3"/>
-      <c r="BO7" s="3"/>
-      <c r="BP7" s="3"/>
-      <c r="BQ7" s="3"/>
-      <c r="BR7" s="3"/>
-      <c r="BS7" s="3"/>
-      <c r="BT7" s="3"/>
-      <c r="BU7" s="3"/>
-      <c r="BV7" s="3"/>
-    </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K7" s="10">
+        <v>1740</v>
+      </c>
+      <c r="L7" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:H8" si="0">+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>1714</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+        <v>1861</v>
+      </c>
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+        <v>2045</v>
+      </c>
+      <c r="I8" s="11">
         <f>+I6+I7</f>
         <v>2162</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="11">
         <f>+J6+J7</f>
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
-      <c r="BL8" s="3"/>
-      <c r="BM8" s="3"/>
-      <c r="BN8" s="3"/>
-      <c r="BO8" s="3"/>
-      <c r="BP8" s="3"/>
-      <c r="BQ8" s="3"/>
-      <c r="BR8" s="3"/>
-      <c r="BS8" s="3"/>
-      <c r="BT8" s="3"/>
-      <c r="BU8" s="3"/>
-      <c r="BV8" s="3"/>
-    </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K8" s="11">
+        <f t="shared" ref="K8:N8" si="1">+K6+K7</f>
+        <v>2360</v>
+      </c>
+      <c r="L8" s="11">
+        <f t="shared" si="1"/>
+        <v>2680</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>88</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
+      <c r="G9" s="10">
+        <v>95</v>
+      </c>
+      <c r="H9" s="10">
+        <v>97</v>
+      </c>
+      <c r="I9" s="10">
         <v>108</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
-      <c r="BL9" s="3"/>
-      <c r="BM9" s="3"/>
-      <c r="BN9" s="3"/>
-      <c r="BO9" s="3"/>
-      <c r="BP9" s="3"/>
-      <c r="BQ9" s="3"/>
-      <c r="BR9" s="3"/>
-      <c r="BS9" s="3"/>
-      <c r="BT9" s="3"/>
-      <c r="BU9" s="3"/>
-      <c r="BV9" s="3"/>
-    </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K9" s="10">
+        <v>123</v>
+      </c>
+      <c r="L9" s="10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>725</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="G10" s="10">
+        <v>809</v>
+      </c>
+      <c r="H10" s="10">
+        <v>903</v>
+      </c>
+      <c r="I10" s="10">
         <v>936</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="3"/>
-      <c r="BK10" s="3"/>
-      <c r="BL10" s="3"/>
-      <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="3"/>
-      <c r="BV10" s="3"/>
-    </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K10" s="10">
+        <v>1068</v>
+      </c>
+      <c r="L10" s="10">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
-        <f t="shared" ref="C11:H11" si="1">+C8-C9-C10</f>
+      <c r="C11" s="10">
+        <f t="shared" ref="C11:H11" si="2">+C8-C9-C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <f t="shared" si="1"/>
+      <c r="D11" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
+      <c r="E11" s="10">
+        <f t="shared" si="2"/>
         <v>901</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
+      <c r="F11" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="G11" s="10">
+        <f t="shared" si="2"/>
+        <v>957</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>1045</v>
+      </c>
+      <c r="I11" s="10">
         <f>+I8-I9-I10</f>
         <v>1118</v>
       </c>
-      <c r="J11" s="3">
-        <f t="shared" ref="J11" si="2">+J8-J9-J10</f>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11:N11" si="3">+J8-J9-J10</f>
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="3"/>
-      <c r="BK11" s="3"/>
-      <c r="BL11" s="3"/>
-      <c r="BM11" s="3"/>
-      <c r="BN11" s="3"/>
-      <c r="BO11" s="3"/>
-      <c r="BP11" s="3"/>
-      <c r="BQ11" s="3"/>
-      <c r="BR11" s="3"/>
-      <c r="BS11" s="3"/>
-      <c r="BT11" s="3"/>
-      <c r="BU11" s="3"/>
-      <c r="BV11" s="3"/>
-    </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K11" s="10">
+        <f t="shared" si="3"/>
+        <v>1169</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="3"/>
+        <v>1302</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <v>295</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="G12" s="10">
+        <v>361</v>
+      </c>
+      <c r="H12" s="10">
+        <v>353</v>
+      </c>
+      <c r="I12" s="10">
         <v>331</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="3"/>
-      <c r="BK12" s="3"/>
-      <c r="BL12" s="3"/>
-      <c r="BM12" s="3"/>
-      <c r="BN12" s="3"/>
-      <c r="BO12" s="3"/>
-      <c r="BP12" s="3"/>
-      <c r="BQ12" s="3"/>
-      <c r="BR12" s="3"/>
-      <c r="BS12" s="3"/>
-      <c r="BT12" s="3"/>
-      <c r="BU12" s="3"/>
-      <c r="BV12" s="3"/>
-    </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K12" s="10">
+        <v>405</v>
+      </c>
+      <c r="L12" s="10">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="E13" s="10">
         <v>313</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="G13" s="10">
+        <v>335</v>
+      </c>
+      <c r="H13" s="10">
+        <v>349</v>
+      </c>
+      <c r="I13" s="10">
         <v>332</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-      <c r="BG13" s="3"/>
-      <c r="BH13" s="3"/>
-      <c r="BI13" s="3"/>
-      <c r="BJ13" s="3"/>
-      <c r="BK13" s="3"/>
-      <c r="BL13" s="3"/>
-      <c r="BM13" s="3"/>
-      <c r="BN13" s="3"/>
-      <c r="BO13" s="3"/>
-      <c r="BP13" s="3"/>
-      <c r="BQ13" s="3"/>
-      <c r="BR13" s="3"/>
-      <c r="BS13" s="3"/>
-      <c r="BT13" s="3"/>
-      <c r="BU13" s="3"/>
-      <c r="BV13" s="3"/>
-    </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K13" s="10">
+        <v>377</v>
+      </c>
+      <c r="L13" s="10">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>137</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="G14" s="10">
+        <v>124</v>
+      </c>
+      <c r="H14" s="10">
+        <v>60</v>
+      </c>
+      <c r="I14" s="10">
         <v>114</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
-      <c r="BG14" s="3"/>
-      <c r="BH14" s="3"/>
-      <c r="BI14" s="3"/>
-      <c r="BJ14" s="3"/>
-      <c r="BK14" s="3"/>
-      <c r="BL14" s="3"/>
-      <c r="BM14" s="3"/>
-      <c r="BN14" s="3"/>
-      <c r="BO14" s="3"/>
-      <c r="BP14" s="3"/>
-      <c r="BQ14" s="3"/>
-      <c r="BR14" s="3"/>
-      <c r="BS14" s="3"/>
-      <c r="BT14" s="3"/>
-      <c r="BU14" s="3"/>
-      <c r="BV14" s="3"/>
-    </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K14" s="10">
+        <v>109</v>
+      </c>
+      <c r="L14" s="10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>34</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
+      <c r="G15" s="10">
+        <v>51</v>
+      </c>
+      <c r="H15" s="10">
+        <v>42</v>
+      </c>
+      <c r="I15" s="10">
         <v>58</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="AX15" s="3"/>
-      <c r="AY15" s="3"/>
-      <c r="AZ15" s="3"/>
-      <c r="BA15" s="3"/>
-      <c r="BB15" s="3"/>
-      <c r="BC15" s="3"/>
-      <c r="BD15" s="3"/>
-      <c r="BE15" s="3"/>
-      <c r="BF15" s="3"/>
-      <c r="BG15" s="3"/>
-      <c r="BH15" s="3"/>
-      <c r="BI15" s="3"/>
-      <c r="BJ15" s="3"/>
-      <c r="BK15" s="3"/>
-      <c r="BL15" s="3"/>
-      <c r="BM15" s="3"/>
-      <c r="BN15" s="3"/>
-      <c r="BO15" s="3"/>
-      <c r="BP15" s="3"/>
-      <c r="BQ15" s="3"/>
-      <c r="BR15" s="3"/>
-      <c r="BS15" s="3"/>
-      <c r="BT15" s="3"/>
-      <c r="BU15" s="3"/>
-      <c r="BV15" s="3"/>
-    </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="K15" s="10">
+        <v>75</v>
+      </c>
+      <c r="L15" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <v>0</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="G16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="AX16" s="3"/>
-      <c r="AY16" s="3"/>
-      <c r="AZ16" s="3"/>
-      <c r="BA16" s="3"/>
-      <c r="BB16" s="3"/>
-      <c r="BC16" s="3"/>
-      <c r="BD16" s="3"/>
-      <c r="BE16" s="3"/>
-      <c r="BF16" s="3"/>
-      <c r="BG16" s="3"/>
-      <c r="BH16" s="3"/>
-      <c r="BI16" s="3"/>
-      <c r="BJ16" s="3"/>
-      <c r="BK16" s="3"/>
-      <c r="BL16" s="3"/>
-      <c r="BM16" s="3"/>
-      <c r="BN16" s="3"/>
-      <c r="BO16" s="3"/>
-      <c r="BP16" s="3"/>
-      <c r="BQ16" s="3"/>
-      <c r="BR16" s="3"/>
-      <c r="BS16" s="3"/>
-      <c r="BT16" s="3"/>
-      <c r="BU16" s="3"/>
-      <c r="BV16" s="3"/>
-    </row>
-    <row r="17" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:H17" si="3">+C11-SUM(C12:C16)</f>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:H17" si="4">+C11-SUM(C12:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
+      <c r="D17" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="3"/>
+      <c r="E17" s="10">
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="3"/>
+      <c r="F17" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="G17" s="10">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="4"/>
+        <v>241</v>
+      </c>
+      <c r="I17" s="10">
         <f>+I11-SUM(I12:I16)</f>
         <v>283</v>
       </c>
-      <c r="J17" s="3">
-        <f t="shared" ref="J17" si="4">+J11-SUM(J12:J16)</f>
+      <c r="J17" s="10">
+        <f t="shared" ref="J17:N17" si="5">+J11-SUM(J12:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
-      <c r="BP17" s="3"/>
-      <c r="BQ17" s="3"/>
-      <c r="BR17" s="3"/>
-      <c r="BS17" s="3"/>
-      <c r="BT17" s="3"/>
-      <c r="BU17" s="3"/>
-      <c r="BV17" s="3"/>
-    </row>
-    <row r="18" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K17" s="10">
+        <f t="shared" si="5"/>
+        <v>203</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
+      <c r="E18" s="10">
         <v>63</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="G18" s="10">
+        <v>79</v>
+      </c>
+      <c r="H18" s="10">
+        <v>80</v>
+      </c>
+      <c r="I18" s="10">
         <v>77</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
-      <c r="BP18" s="3"/>
-      <c r="BQ18" s="3"/>
-      <c r="BR18" s="3"/>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="3"/>
-      <c r="BU18" s="3"/>
-      <c r="BV18" s="3"/>
-    </row>
-    <row r="19" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K18" s="10">
+        <v>65</v>
+      </c>
+      <c r="L18" s="10">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <v>0</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="G19" s="10">
+        <v>-373</v>
+      </c>
+      <c r="H19" s="10">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10">
         <v>0</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
-      <c r="BP19" s="3"/>
-      <c r="BQ19" s="3"/>
-      <c r="BR19" s="3"/>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="3"/>
-      <c r="BU19" s="3"/>
-      <c r="BV19" s="3"/>
-    </row>
-    <row r="20" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K19" s="10">
+        <v>-1021</v>
+      </c>
+      <c r="L19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>555</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="G20" s="10">
+        <v>-44</v>
+      </c>
+      <c r="H20" s="10">
+        <v>-79</v>
+      </c>
+      <c r="I20" s="10">
         <v>512</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
-      <c r="BP20" s="3"/>
-      <c r="BQ20" s="3"/>
-      <c r="BR20" s="3"/>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="3"/>
-      <c r="BU20" s="3"/>
-      <c r="BV20" s="3"/>
-    </row>
-    <row r="21" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K20" s="10">
+        <v>-23</v>
+      </c>
+      <c r="L20" s="10">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <v>10</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
+      <c r="G21" s="10">
+        <v>4</v>
+      </c>
+      <c r="H21" s="10">
+        <v>44</v>
+      </c>
+      <c r="I21" s="10">
         <v>28</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
-      <c r="BP21" s="3"/>
-      <c r="BQ21" s="3"/>
-      <c r="BR21" s="3"/>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="3"/>
-      <c r="BU21" s="3"/>
-      <c r="BV21" s="3"/>
-    </row>
-    <row r="22" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K21" s="10">
+        <v>-6</v>
+      </c>
+      <c r="L21" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="E22" s="10">
         <v>-2</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
         <v>16</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
-      <c r="BP22" s="3"/>
-      <c r="BQ22" s="3"/>
-      <c r="BR22" s="3"/>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="3"/>
-      <c r="BU22" s="3"/>
-      <c r="BV22" s="3"/>
-    </row>
-    <row r="23" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:H23" si="5">+C17+C18+C19+C20-C21+C22</f>
+      <c r="C23" s="10">
+        <f t="shared" ref="C23:H23" si="6">+C17+C18+C19+C20-C21+C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="5"/>
+      <c r="D23" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E23" s="3">
-        <f t="shared" si="5"/>
+      <c r="E23" s="10">
+        <f t="shared" si="6"/>
         <v>728</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="5"/>
+      <c r="F23" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
+        <v>-256</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="6"/>
+        <v>203</v>
+      </c>
+      <c r="I23" s="10">
         <f>+I17+I18+I19+I20-I21+I22</f>
         <v>860</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23" si="6">+J17+J18+J19+J20-J21+J22</f>
+      <c r="J23" s="10">
+        <f t="shared" ref="J23:N23" si="7">+J17+J18+J19+J20-J21+J22</f>
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
-      <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
-      <c r="BP23" s="3"/>
-      <c r="BQ23" s="3"/>
-      <c r="BR23" s="3"/>
-      <c r="BS23" s="3"/>
-      <c r="BT23" s="3"/>
-      <c r="BU23" s="3"/>
-      <c r="BV23" s="3"/>
-    </row>
-    <row r="24" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K23" s="10">
+        <f t="shared" si="7"/>
+        <v>-770</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="7"/>
+        <v>1079</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>10</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="G24" s="10">
+        <v>17</v>
+      </c>
+      <c r="H24" s="10">
         <v>32</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="3"/>
-      <c r="BU24" s="3"/>
-      <c r="BV24" s="3"/>
-    </row>
-    <row r="25" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="I24" s="10">
+        <v>32</v>
+      </c>
+      <c r="K24" s="10">
+        <v>-88</v>
+      </c>
+      <c r="L24" s="10">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="3">
-        <f t="shared" ref="C25:H25" si="7">+C23-C24</f>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:H25" si="8">+C23-C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="3">
-        <f t="shared" si="7"/>
+      <c r="D25" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E25" s="3">
-        <f t="shared" si="7"/>
+      <c r="E25" s="10">
+        <f t="shared" si="8"/>
         <v>718</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="7"/>
+      <c r="F25" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
+      <c r="G25" s="10">
+        <f t="shared" si="8"/>
+        <v>-273</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+      <c r="I25" s="10">
         <f>+I23-I24</f>
         <v>828</v>
       </c>
-      <c r="J25" s="3">
-        <f t="shared" ref="J25" si="8">+J23-J24</f>
+      <c r="J25" s="10">
+        <f t="shared" ref="J25:N25" si="9">+J23-J24</f>
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
-      <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
-      <c r="BT25" s="3"/>
-      <c r="BU25" s="3"/>
-      <c r="BV25" s="3"/>
-    </row>
-    <row r="26" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-      <c r="BT26" s="3"/>
-      <c r="BU26" s="3"/>
-      <c r="BV26" s="3"/>
-    </row>
-    <row r="27" spans="2:74" x14ac:dyDescent="0.2">
+      <c r="K25" s="10">
+        <f t="shared" si="9"/>
+        <v>-682</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="9"/>
+        <v>906</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:74" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="7" t="e">
-        <f t="shared" ref="C27:D27" si="9">+C25/C28</f>
+        <f t="shared" ref="C27:D27" si="10">+C25/C28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="7">
@@ -2850,29 +1534,41 @@
         <v>0.55948231578205332</v>
       </c>
       <c r="F27" s="7" t="e">
-        <f t="shared" ref="F27:J27" si="10">+F25/F28</f>
+        <f t="shared" ref="F27:N27" si="11">+F25/F28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="7" t="e">
-        <f t="shared" si="10"/>
+      <c r="G27" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.21205914008764981</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="11"/>
+        <v>0.13267125123839013</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="11"/>
+        <v>0.64156930902766907</v>
+      </c>
+      <c r="J27" s="7" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="7" t="e">
-        <f t="shared" si="10"/>
+      <c r="K27" s="7">
+        <f t="shared" si="11"/>
+        <v>-0.52648750289737967</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="11"/>
+        <v>0.69813350616632586</v>
+      </c>
+      <c r="M27" s="7" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="7">
-        <f t="shared" si="10"/>
-        <v>0.64156930902766907</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f t="shared" si="10"/>
+      <c r="N27" s="7" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -2934,7 +1630,7 @@
       <c r="BU27" s="3"/>
       <c r="BV27" s="3"/>
     </row>
-    <row r="28" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2944,14 +1640,22 @@
         <v>1283.329213</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="G28" s="3">
+        <v>1287.3767190000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1288.900183</v>
+      </c>
       <c r="I28" s="3">
         <v>1290.5854260000001</v>
       </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="K28" s="3">
+        <v>1295.3773759999999</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1297.74605</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3015,7 +1719,7 @@
       <c r="BU28" s="3"/>
       <c r="BV28" s="3"/>
     </row>
-    <row r="29" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -3089,7 +1793,7 @@
       <c r="BU29" s="3"/>
       <c r="BV29" s="3"/>
     </row>
-    <row r="30" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
@@ -3098,11 +1802,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="8" t="e">
-        <f t="shared" ref="G30:H31" si="11">+G3/C3-1</f>
+        <f t="shared" ref="G30:H31" si="12">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="8" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="8">
@@ -3110,13 +1814,25 @@
         <v>0.24037007383684728</v>
       </c>
       <c r="J30" s="8" t="e">
-        <f>+J3/F3-1</f>
+        <f t="shared" ref="J30:N31" si="13">+J3/F3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="K30" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="13"/>
+        <v>0.30622351104171308</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="N30" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -3178,7 +1894,7 @@
       <c r="BU30" s="3"/>
       <c r="BV30" s="3"/>
     </row>
-    <row r="31" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
@@ -3187,25 +1903,37 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="8">
-        <f t="shared" ref="I31:J31" si="12">+I4/E4-1</f>
-        <v>0.27737226277372273</v>
-      </c>
-      <c r="J31" s="8" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="H31" s="8" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I31" s="8">
+        <f t="shared" ref="I31:J31" si="14">+I4/E4-1</f>
+        <v>0.27737226277372273</v>
+      </c>
+      <c r="J31" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="13"/>
+        <v>9.4674556213017791E-2</v>
+      </c>
+      <c r="M31" s="8">
+        <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="N31" s="8" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -3267,7 +1995,7 @@
       <c r="BU31" s="3"/>
       <c r="BV31" s="3"/>
     </row>
-    <row r="32" spans="2:74" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
@@ -3276,11 +2004,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="8" t="e">
-        <f t="shared" ref="G32:H34" si="13">+G6/C6-1</f>
+        <f t="shared" ref="G32:H34" si="15">+G6/C6-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I32" s="8">
@@ -3288,13 +2016,25 @@
         <v>0.25514403292181065</v>
       </c>
       <c r="J32" s="8" t="e">
-        <f>+J6/F6-1</f>
+        <f t="shared" ref="J32:N34" si="16">+J6/F6-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="K32" s="8">
+        <f t="shared" si="16"/>
+        <v>0.21330724070450091</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="16"/>
+        <v>0.1651865008880995</v>
+      </c>
+      <c r="M32" s="8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N32" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -3365,25 +2105,37 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H33" s="8" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I33" s="8">
-        <f t="shared" ref="I33:J34" si="14">+I7/E7-1</f>
+        <f t="shared" ref="I33:J34" si="17">+I7/E7-1</f>
         <v>0.26384364820846895</v>
       </c>
       <c r="J33" s="8" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="K33" s="8">
+        <f t="shared" si="16"/>
+        <v>0.28888888888888897</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="16"/>
+        <v>0.36572199730094468</v>
+      </c>
+      <c r="M33" s="8">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N33" s="8" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -3445,135 +2197,159 @@
       <c r="BU33" s="3"/>
       <c r="BV33" s="3"/>
     </row>
-    <row r="34" spans="2:74" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
+    <row r="34" spans="2:74" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="12" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="8" t="e">
-        <f t="shared" si="13"/>
+      <c r="H34" s="12" t="e">
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="8">
-        <f t="shared" si="14"/>
+      <c r="I34" s="12">
+        <f t="shared" si="17"/>
         <v>0.26137689614935833</v>
       </c>
-      <c r="J34" s="8" t="e">
-        <f t="shared" si="14"/>
+      <c r="J34" s="12" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="3"/>
-      <c r="AY34" s="3"/>
-      <c r="AZ34" s="3"/>
-      <c r="BA34" s="3"/>
-      <c r="BB34" s="3"/>
-      <c r="BC34" s="3"/>
-      <c r="BD34" s="3"/>
-      <c r="BE34" s="3"/>
-      <c r="BF34" s="3"/>
-      <c r="BG34" s="3"/>
-      <c r="BH34" s="3"/>
-      <c r="BI34" s="3"/>
-      <c r="BJ34" s="3"/>
-      <c r="BK34" s="3"/>
-      <c r="BL34" s="3"/>
-      <c r="BM34" s="3"/>
-      <c r="BN34" s="3"/>
-      <c r="BO34" s="3"/>
-      <c r="BP34" s="3"/>
-      <c r="BQ34" s="3"/>
-      <c r="BR34" s="3"/>
-      <c r="BS34" s="3"/>
-      <c r="BT34" s="3"/>
-      <c r="BU34" s="3"/>
-      <c r="BV34" s="3"/>
+      <c r="K34" s="12">
+        <f t="shared" si="16"/>
+        <v>0.26813541106931749</v>
+      </c>
+      <c r="L34" s="12">
+        <f t="shared" si="16"/>
+        <v>0.31051344743276288</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="16"/>
+        <v>-1</v>
+      </c>
+      <c r="N34" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="6"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="6"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
+      <c r="BE34" s="6"/>
+      <c r="BF34" s="6"/>
+      <c r="BG34" s="6"/>
+      <c r="BH34" s="6"/>
+      <c r="BI34" s="6"/>
+      <c r="BJ34" s="6"/>
+      <c r="BK34" s="6"/>
+      <c r="BL34" s="6"/>
+      <c r="BM34" s="6"/>
+      <c r="BN34" s="6"/>
+      <c r="BO34" s="6"/>
+      <c r="BP34" s="6"/>
+      <c r="BQ34" s="6"/>
+      <c r="BR34" s="6"/>
+      <c r="BS34" s="6"/>
+      <c r="BT34" s="6"/>
+      <c r="BU34" s="6"/>
+      <c r="BV34" s="6"/>
     </row>
     <row r="35" spans="2:74" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="8" t="e">
-        <f t="shared" ref="C35:H35" si="15">+(C6-C9)/C6</f>
+        <f t="shared" ref="C35:H35" si="18">+(C6-C9)/C6</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E35" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>0.81893004115226342</v>
       </c>
       <c r="F35" s="8" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
+      <c r="G35" s="8">
+        <f t="shared" si="18"/>
+        <v>0.81409001956947158</v>
+      </c>
+      <c r="H35" s="8">
+        <f t="shared" si="18"/>
+        <v>0.82770870337477798</v>
       </c>
       <c r="I35" s="8">
         <f>+(I6-I9)/I6</f>
         <v>0.82295081967213113</v>
       </c>
       <c r="J35" s="8" t="e">
-        <f>+(J6-J9)/J6</f>
+        <f t="shared" ref="J35:N35" si="19">+(J6-J9)/J6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="K35" s="8">
+        <f t="shared" si="19"/>
+        <v>0.80161290322580647</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="19"/>
+        <v>0.81554878048780488</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="8" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -3640,41 +2416,53 @@
         <v>48</v>
       </c>
       <c r="C36" s="8" t="e">
-        <f t="shared" ref="C36:H36" si="16">+(C7-C10)/C7</f>
+        <f t="shared" ref="C36:H36" si="20">+(C7-C10)/C7</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D36" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>0.40960912052117265</v>
       </c>
       <c r="F36" s="8" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G36" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="8" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="G36" s="8">
+        <f t="shared" si="20"/>
+        <v>0.40074074074074073</v>
+      </c>
+      <c r="H36" s="8">
+        <f t="shared" si="20"/>
+        <v>0.39068825910931176</v>
       </c>
       <c r="I36" s="8">
         <f>+(I7-I10)/I7</f>
         <v>0.39690721649484534</v>
       </c>
       <c r="J36" s="8" t="e">
-        <f>+(J7-J10)/J7</f>
+        <f t="shared" ref="J36:N36" si="21">+(J7-J10)/J7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="K36" s="8">
+        <f t="shared" si="21"/>
+        <v>0.38620689655172413</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="21"/>
+        <v>0.37895256916996045</v>
+      </c>
+      <c r="M36" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="8" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -3741,41 +2529,53 @@
         <v>51</v>
       </c>
       <c r="C37" s="8" t="e">
-        <f t="shared" ref="C37:H37" si="17">+C11/C8</f>
+        <f t="shared" ref="C37:H37" si="22">+C11/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D37" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0.52567094515752621</v>
       </c>
       <c r="F37" s="8" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" s="8" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+      <c r="G37" s="8">
+        <f t="shared" si="22"/>
+        <v>0.51423965609887157</v>
+      </c>
+      <c r="H37" s="8">
+        <f t="shared" si="22"/>
+        <v>0.51100244498777503</v>
       </c>
       <c r="I37" s="8">
         <f>+I11/I8</f>
         <v>0.51711378353376503</v>
       </c>
       <c r="J37" s="8" t="e">
-        <f t="shared" ref="J37" si="18">+J11/J8</f>
+        <f t="shared" ref="J37:N37" si="23">+J11/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+      <c r="K37" s="8">
+        <f t="shared" si="23"/>
+        <v>0.49533898305084745</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="23"/>
+        <v>0.48582089552238805</v>
+      </c>
+      <c r="M37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="8" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
@@ -3842,41 +2642,53 @@
         <v>49</v>
       </c>
       <c r="C38" s="8" t="e">
-        <f t="shared" ref="C38:H38" si="19">+C17/C8</f>
+        <f t="shared" ref="C38:H38" si="24">+C17/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.1178529754959155E-2</v>
       </c>
       <c r="F38" s="8" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="8" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
+      <c r="G38" s="8">
+        <f t="shared" si="24"/>
+        <v>4.6211714132186998E-2</v>
+      </c>
+      <c r="H38" s="8">
+        <f t="shared" si="24"/>
+        <v>0.11784841075794621</v>
       </c>
       <c r="I38" s="8">
         <f>+I17/I8</f>
         <v>0.13089731729879742</v>
       </c>
       <c r="J38" s="8" t="e">
-        <f t="shared" ref="J38" si="20">+J17/J8</f>
+        <f t="shared" ref="J38:N38" si="25">+J17/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+      <c r="K38" s="8">
+        <f t="shared" si="25"/>
+        <v>8.6016949152542377E-2</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="25"/>
+        <v>0.1085820895522388</v>
+      </c>
+      <c r="M38" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="8" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3943,41 +2755,53 @@
         <v>50</v>
       </c>
       <c r="C39" s="8" t="e">
-        <f t="shared" ref="C39:H39" si="21">+C24/C23</f>
+        <f t="shared" ref="C39:H39" si="26">+C24/C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D39" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>1.3736263736263736E-2</v>
       </c>
       <c r="F39" s="8" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="8" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+      <c r="G39" s="8">
+        <f t="shared" si="26"/>
+        <v>-6.640625E-2</v>
+      </c>
+      <c r="H39" s="8">
+        <f t="shared" si="26"/>
+        <v>0.15763546798029557</v>
       </c>
       <c r="I39" s="8">
         <f>+I24/I23</f>
         <v>3.7209302325581395E-2</v>
       </c>
       <c r="J39" s="8" t="e">
-        <f t="shared" ref="J39" si="22">+J24/J23</f>
+        <f t="shared" ref="J39:N39" si="27">+J24/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+      <c r="K39" s="8">
+        <f t="shared" si="27"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="27"/>
+        <v>0.1603336422613531</v>
+      </c>
+      <c r="M39" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="8" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
